--- a/data/trans_dic/IP16A98-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 46,36</t>
+          <t>10,28; 44,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,23</t>
+          <t>0,0; 48,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 41,73</t>
+          <t>4,15; 39,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 28,66</t>
+          <t>5,58; 28,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 45,61</t>
+          <t>8,04; 46,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 70,67</t>
+          <t>10,28; 75,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 30,69</t>
+          <t>10,05; 31,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 36,17</t>
+          <t>8,84; 38,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 49,45</t>
+          <t>12,62; 50,32</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 20,93</t>
+          <t>9,2; 20,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,94; 29,58</t>
+          <t>14,71; 29,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 30,32</t>
+          <t>13,34; 29,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 20,71</t>
+          <t>7,81; 20,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 24,67</t>
+          <t>11,38; 25,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 25,08</t>
+          <t>11,48; 25,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 18,44</t>
+          <t>9,56; 18,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 24,92</t>
+          <t>15,07; 24,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 24,61</t>
+          <t>13,83; 25,41</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 24,5</t>
+          <t>5,48; 25,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 32,93</t>
+          <t>7,97; 31,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 29,69</t>
+          <t>6,66; 28,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 17,92</t>
+          <t>2,04; 17,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 26,24</t>
+          <t>4,72; 25,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 29,34</t>
+          <t>10,33; 30,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 17,86</t>
+          <t>5,3; 17,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 25,82</t>
+          <t>9,44; 25,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 23,87</t>
+          <t>10,22; 24,43</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,64</t>
+          <t>11,11; 21,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 26,46</t>
+          <t>14,93; 26,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 25,52</t>
+          <t>13,89; 27,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 16,82</t>
+          <t>8,34; 17,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 23,15</t>
+          <t>11,8; 22,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 25,77</t>
+          <t>14,11; 26,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 17,79</t>
+          <t>10,69; 17,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 23,18</t>
+          <t>15,09; 22,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 23,63</t>
+          <t>14,93; 23,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A98-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A98-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50,55%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>24,58%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>15,95%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>22,32%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>17,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>33,66%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 44,27</t>
+          <t>5,62; 31,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,44</t>
+          <t>8,42; 44,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 39,49</t>
+          <t>12,74; 85,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 28,96</t>
+          <t>9,93; 46,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 46,33</t>
+          <t>0,0; 49,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 75,65</t>
+          <t>4,92; 40,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 31,57</t>
+          <t>10,51; 31,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 38,19</t>
+          <t>8,7; 36,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 50,32</t>
+          <t>13,33; 64,25</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>13,28%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>14,29%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>21,52%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>20,08%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,28%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,24%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>17,36%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 20,61</t>
+          <t>8,47; 19,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 29,21</t>
+          <t>11,09; 24,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,34; 29,52</t>
+          <t>6,47; 21,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 20,1</t>
+          <t>8,82; 20,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 25,22</t>
+          <t>15,03; 28,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 25,29</t>
+          <t>13,84; 30,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 18,5</t>
+          <t>9,89; 18,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,07; 24,99</t>
+          <t>14,7; 24,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 25,41</t>
+          <t>11,45; 23,3</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>13,4%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>18,08%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>15,92%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 25,36</t>
+          <t>2,03; 17,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 31,7</t>
+          <t>4,74; 26,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,66; 28,38</t>
+          <t>10,24; 30,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 17,42</t>
+          <t>6,46; 25,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 25,67</t>
+          <t>8,68; 32,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 30,87</t>
+          <t>5,47; 26,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 17,89</t>
+          <t>5,87; 18,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 25,39</t>
+          <t>8,96; 24,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 24,43</t>
+          <t>10,03; 24,14</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>15,19%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>20,32%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>18,46%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 21,09</t>
+          <t>8,16; 16,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 26,11</t>
+          <t>11,59; 22,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,89; 27,1</t>
+          <t>10,46; 27,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 17,46</t>
+          <t>10,93; 20,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,8; 22,73</t>
+          <t>14,75; 26,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 26,39</t>
+          <t>13,19; 25,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 17,74</t>
+          <t>10,65; 17,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 22,73</t>
+          <t>14,93; 22,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,93; 23,91</t>
+          <t>13,66; 24,32</t>
         </is>
       </c>
     </row>
